--- a/biology/Zoologie/Cotylea/Cotylea.xlsx
+++ b/biology/Zoologie/Cotylea/Cotylea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotylés
 Les Cotylea (en français, Cotylés) sont un sous-ordre de vers plats de l'ordre des Polycladida.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Essentiellement marins, les cotylés se distinguent des acotylés par la position de la bouche, située dans la moitié antérieure du corps. Ils possèdent une ventouse ventrale, appelée cotylé, situé dans l'axe central en arrière des orifices buccal et génitaux[1]. Ce cotylé peut prendre la forme d'une petite dépression ou d'un petit bourrelet combinant des fonctions musculaires et adhésives.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Essentiellement marins, les cotylés se distinguent des acotylés par la position de la bouche, située dans la moitié antérieure du corps. Ils possèdent une ventouse ventrale, appelée cotylé, situé dans l'axe central en arrière des orifices buccal et génitaux. Ce cotylé peut prendre la forme d'une petite dépression ou d'un petit bourrelet combinant des fonctions musculaires et adhésives.
 </t>
         </is>
       </c>
@@ -545,13 +559,53 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sous-ordre des Cotylea
-Le nom valide complet (avec auteur) de ce taxon est Cotylea Lang, 1884[2].
-Le sous-ordre des Cotylea a pour synonymes les super-familles suivantes[2] :
+          <t>Sous-ordre des Cotylea</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Cotylea Lang, 1884.
+Le sous-ordre des Cotylea a pour synonymes les super-familles suivantes :
 Cestoplanoidea Bahia, Padula &amp; Schrödl, 2017
 Chromoplanoidea Bahia, Padula &amp; Schrödl, 2017
-Euryleptoidea Faubel, 1984
-Sous-taxons de Cotylea
+Euryleptoidea Faubel, 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cotylea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cotylea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-taxons de Cotylea</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Prostheceraeus giesbrechtii, un Euryleptidae
 			un Pericelis sp., Pericelidae
 			Prosthiostomum cf. trilineatum, un Prosthiostomidae
